--- a/output/tiprates_20200801_20200815.xlsx
+++ b/output/tiprates_20200801_20200815.xlsx
@@ -14,15 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>Sat Aug  1</t>
+  </si>
+  <si>
+    <t>Sun Aug  2</t>
+  </si>
+  <si>
+    <t>Mon Aug  3</t>
+  </si>
+  <si>
+    <t>Tue Aug  4</t>
+  </si>
+  <si>
+    <t>Wed Aug  5</t>
+  </si>
+  <si>
+    <t>Thu Aug  6</t>
+  </si>
+  <si>
+    <t>Fri Aug  7</t>
+  </si>
+  <si>
+    <t>Sat Aug  8</t>
+  </si>
+  <si>
+    <t>Sun Aug  9</t>
+  </si>
+  <si>
+    <t>Mon Aug 10</t>
+  </si>
+  <si>
+    <t>Tue Aug 11</t>
+  </si>
+  <si>
+    <t>Wed Aug 12</t>
+  </si>
+  <si>
+    <t>Thu Aug 13</t>
+  </si>
+  <si>
+    <t>Fri Aug 14</t>
+  </si>
+  <si>
+    <t>Sat Aug 15</t>
   </si>
 </sst>
 </file>
@@ -380,230 +422,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>20200801</v>
-      </c>
-      <c r="D2">
         <v>12.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>20200802</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>20200803</v>
-      </c>
-      <c r="D4">
         <v>7.58</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>20200804</v>
-      </c>
-      <c r="D5">
         <v>12.35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>20200805</v>
-      </c>
-      <c r="D6">
         <v>13.51</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>20200806</v>
-      </c>
-      <c r="D7">
         <v>11.33</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>20200807</v>
-      </c>
-      <c r="D8">
         <v>11.68</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>20200808</v>
-      </c>
-      <c r="D9">
         <v>15.58</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>20200809</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>20200810</v>
-      </c>
-      <c r="D11">
         <v>11.32</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>20200811</v>
-      </c>
-      <c r="D12">
         <v>10.89</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>20200812</v>
-      </c>
-      <c r="D13">
         <v>15.17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>20200813</v>
-      </c>
-      <c r="D14">
         <v>10.92</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>20200814</v>
-      </c>
-      <c r="D15">
         <v>11.73</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>20200815</v>
-      </c>
-      <c r="D16">
         <v>13.89</v>
       </c>
     </row>

--- a/output/tiprates_20200801_20200815.xlsx
+++ b/output/tiprates_20200801_20200815.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>rate</t>
-  </si>
-  <si>
-    <t>Sat Aug  1</t>
   </si>
   <si>
     <t>Sun Aug  2</t>
@@ -422,11 +419,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="14.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -438,166 +438,155 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>12.32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" s="1">
+        <v>7.58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>7.58</v>
+      <c r="C4" s="1">
+        <v>12.35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>12.35</v>
+      <c r="C5" s="1">
+        <v>13.51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>13.51</v>
+      <c r="C6" s="1">
+        <v>11.33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>11.33</v>
+      <c r="C7" s="1">
+        <v>11.68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>11.68</v>
+      <c r="C8" s="1">
+        <v>15.58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>15.58</v>
+      <c r="C9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" s="1">
+        <v>11.32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>11.32</v>
+      <c r="C11" s="1">
+        <v>10.89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>10.89</v>
+      <c r="C12" s="1">
+        <v>15.17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>15.17</v>
+      <c r="C13" s="1">
+        <v>10.92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>10.92</v>
+      <c r="C14" s="1">
+        <v>11.73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>11.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
+      <c r="C15" s="1">
         <v>13.89</v>
       </c>
     </row>
